--- a/configTools/Luban/ConfigRoot/Datas/card_group_Fixed.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/card_group_Fixed.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -146,17 +146,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -444,7 +441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -621,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,13 +632,13 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="22.75" customWidth="1" min="3" max="3"/>
+    <col width="22.77734375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -783,16 +780,32 @@
       </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>初始筹码</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>初始倍率</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>每级加成筹码</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>每级加成倍率</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>cardgroup_highcard</t>
         </is>
@@ -801,13 +814,13 @@
       <c r="E5" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -815,7 +828,7 @@
       <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>cardgroup_onepair</t>
         </is>
@@ -824,13 +837,13 @@
       <c r="E6" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -838,7 +851,7 @@
       <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>cardgroup_twopair</t>
         </is>
@@ -847,13 +860,13 @@
       <c r="E7" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -861,7 +874,7 @@
       <c r="B8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>cardgroup_threeofakind</t>
         </is>
@@ -870,13 +883,13 @@
       <c r="E8" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -884,7 +897,7 @@
       <c r="B9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>cardgroup_straight</t>
         </is>
@@ -893,13 +906,13 @@
       <c r="E9" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -907,7 +920,7 @@
       <c r="B10" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>cardgroup_flush</t>
         </is>
@@ -916,13 +929,13 @@
       <c r="E10" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -930,7 +943,7 @@
       <c r="B11" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>cardgroup_fullhouse</t>
         </is>
@@ -939,13 +952,13 @@
       <c r="E11" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -953,7 +966,7 @@
       <c r="B12" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C12" s="10" t="inlineStr">
         <is>
           <t>cardgroup_fourofakind</t>
         </is>
@@ -962,13 +975,13 @@
       <c r="E12" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -976,7 +989,7 @@
       <c r="B13" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>cardgroup_straightflush</t>
         </is>
@@ -985,13 +998,13 @@
       <c r="E13" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -999,7 +1012,7 @@
       <c r="B14" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>cardgroup_royalflush</t>
         </is>
@@ -1010,13 +1023,13 @@
       <c r="E14" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H14" s="11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1024,7 +1037,7 @@
       <c r="B15" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="inlineStr">
+      <c r="C15" s="10" t="inlineStr">
         <is>
           <t>cardgroup_fiveofakind</t>
         </is>
@@ -1035,13 +1048,13 @@
       <c r="E15" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1049,7 +1062,7 @@
       <c r="B16" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="12" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>cardgroup_fiveofakindflush</t>
         </is>
@@ -1060,13 +1073,13 @@
       <c r="E16" s="8" t="n">
         <v>160</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1074,7 +1087,7 @@
       <c r="B17" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="12" t="inlineStr">
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>cardgroup_fullhouseflush</t>
         </is>
@@ -1085,13 +1098,13 @@
       <c r="E17" s="8" t="n">
         <v>140</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H17" s="11" t="n">
         <v>3</v>
       </c>
     </row>
